--- a/Data base design/Database Design.xlsx
+++ b/Data base design/Database Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Talent500\Java\Coffee Case Study\CoffeeCaseStudy\Data base design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A840BA6-AEA6-4EFB-B1D7-68395FB01027}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A552C6A7-7B61-4DBB-A1F0-BB8093F13BE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database design" sheetId="1" r:id="rId1"/>
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD86299B-566D-4927-A3B4-5FCAD865A383}">
   <dimension ref="A1:XCG53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data base design/Database Design.xlsx
+++ b/Data base design/Database Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Talent500\Java\Coffee Case Study\CoffeeCaseStudy\Data base design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A552C6A7-7B61-4DBB-A1F0-BB8093F13BE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D6E9FD-E03E-4812-A066-73EF9531130F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database design" sheetId="1" r:id="rId1"/>
@@ -414,6 +414,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,9 +429,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -733,19 +733,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="F3" s="5" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -785,11 +785,11 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -808,11 +808,11 @@
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -836,11 +836,11 @@
       <c r="C12" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -852,16 +852,16 @@
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -901,7 +901,7 @@
   <dimension ref="A1:XCG53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,26 +911,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -943,22 +943,22 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -971,10 +971,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -987,10 +987,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="6" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1003,10 +1003,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1019,10 +1019,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1063,16 +1063,16 @@
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1085,10 +1085,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1101,10 +1101,10 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1117,10 +1117,10 @@
       </c>
     </row>
     <row r="33" spans="1:16309" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1133,10 +1133,10 @@
       </c>
     </row>
     <row r="35" spans="1:16309" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -50038,10 +50038,10 @@
       </c>
     </row>
     <row r="39" spans="1:16309" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="8"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="1:16309" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
@@ -50084,16 +50084,16 @@
       <c r="B46" s="1"/>
     </row>
     <row r="48" spans="1:16309" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="8"/>
+      <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="6" t="s">
         <v>52</v>
       </c>
     </row>
